--- a/TUGAS 22 - NORMALISASI DAN ERD/tugas_normalisasi.xlsx
+++ b/TUGAS 22 - NORMALISASI DAN ERD/tugas_normalisasi.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="137">
   <si>
     <t>nama_kegiatan</t>
   </si>
@@ -195,9 +193,6 @@
     <t>K001</t>
   </si>
   <si>
-    <t>tb_pendaftar</t>
-  </si>
-  <si>
     <t>K002</t>
   </si>
   <si>
@@ -252,14 +247,191 @@
     <t>1 NF</t>
   </si>
   <si>
-    <t>PENDAFTARAN ONLINE PELATIHAN</t>
+    <t>tb_pendaftaran</t>
+  </si>
+  <si>
+    <t>3 NF</t>
+  </si>
+  <si>
+    <t>W001</t>
+  </si>
+  <si>
+    <t>W002</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>ML01</t>
+  </si>
+  <si>
+    <t>ML02</t>
+  </si>
+  <si>
+    <t>tb_pegawai</t>
+  </si>
+  <si>
+    <t>kode_pegawai</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>agama</t>
+  </si>
+  <si>
+    <t>PG001</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>PG002</t>
+  </si>
+  <si>
+    <t>PG003</t>
+  </si>
+  <si>
+    <t>PG004</t>
+  </si>
+  <si>
+    <t>PG005</t>
+  </si>
+  <si>
+    <t>PG006</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>PG007</t>
+  </si>
+  <si>
+    <t>PG008</t>
+  </si>
+  <si>
+    <t>tb_narasumber</t>
+  </si>
+  <si>
+    <t>kode_narasumber</t>
+  </si>
+  <si>
+    <t>NR001</t>
+  </si>
+  <si>
+    <t>NR002</t>
+  </si>
+  <si>
+    <t>NR003</t>
+  </si>
+  <si>
+    <t>NR004</t>
+  </si>
+  <si>
+    <t>NR005</t>
+  </si>
+  <si>
+    <t>NR006</t>
+  </si>
+  <si>
+    <t>NR007</t>
+  </si>
+  <si>
+    <t>NR008</t>
+  </si>
+  <si>
+    <t>tb_room</t>
+  </si>
+  <si>
+    <t>kode_room</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Room1</t>
+  </si>
+  <si>
+    <t>Room2</t>
+  </si>
+  <si>
+    <t>Room3</t>
+  </si>
+  <si>
+    <t>Room4</t>
+  </si>
+  <si>
+    <t>Room5</t>
+  </si>
+  <si>
+    <t>tb_detailkegiatan</t>
+  </si>
+  <si>
+    <t>kode_detailkegiatan</t>
+  </si>
+  <si>
+    <t>KG001</t>
+  </si>
+  <si>
+    <t>KG002</t>
+  </si>
+  <si>
+    <t>KG003</t>
+  </si>
+  <si>
+    <t>KG004</t>
+  </si>
+  <si>
+    <t>KG005</t>
+  </si>
+  <si>
+    <t>KG006</t>
+  </si>
+  <si>
+    <t>KG007</t>
+  </si>
+  <si>
+    <t>KG008</t>
+  </si>
+  <si>
+    <t>KG009</t>
+  </si>
+  <si>
+    <t>KG010</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>Senin</t>
+  </si>
+  <si>
+    <t>Selasa</t>
+  </si>
+  <si>
+    <t>PENDAFTARAN ONLINE PELATIHAN PEGAWAI</t>
+  </si>
+  <si>
+    <t>KG011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +446,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +480,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -313,12 +499,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -331,6 +514,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,78 +835,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:O37"/>
+  <dimension ref="C2:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="15" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="3" t="s">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,14 +943,17 @@
       <c r="K8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
@@ -768,8 +984,11 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +1019,11 @@
       <c r="M10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,7 +1034,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>24</v>
@@ -826,14 +1048,17 @@
       <c r="K11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
@@ -858,14 +1083,17 @@
       <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
@@ -896,8 +1124,11 @@
       <c r="M13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
@@ -928,8 +1159,11 @@
       <c r="M14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
@@ -960,8 +1194,11 @@
       <c r="M15" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
@@ -991,6 +1228,9 @@
       </c>
       <c r="M16" s="1">
         <v>5</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
@@ -1004,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>51</v>
@@ -1023,6 +1263,9 @@
       </c>
       <c r="M17" s="1">
         <v>5</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
@@ -1030,13 +1273,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>51</v>
@@ -1055,6 +1298,9 @@
       </c>
       <c r="M18" s="1">
         <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
@@ -1068,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>35</v>
@@ -1088,55 +1334,70 @@
       <c r="M19" s="1">
         <v>3</v>
       </c>
+      <c r="N19" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>59</v>
+      <c r="I24" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1150,7 +1411,7 @@
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1180,7 +1441,7 @@
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -1188,7 +1449,7 @@
       <c r="E27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1213,12 +1474,12 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>25</v>
@@ -1226,7 +1487,7 @@
       <c r="E28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1251,12 +1512,12 @@
         <v>2</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>43</v>
@@ -1264,14 +1525,14 @@
       <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>24</v>
@@ -1289,12 +1550,12 @@
         <v>2</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>42</v>
@@ -1302,7 +1563,7 @@
       <c r="E30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1327,24 +1588,24 @@
         <v>3</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>34</v>
@@ -1365,12 +1626,12 @@
         <v>3</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -1402,10 +1663,13 @@
       <c r="N32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>25</v>
@@ -1437,10 +1701,13 @@
       <c r="N33" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>43</v>
@@ -1472,10 +1739,13 @@
       <c r="N34" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>42</v>
@@ -1490,7 +1760,7 @@
         <v>48</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>51</v>
@@ -1507,10 +1777,13 @@
       <c r="N35" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>25</v>
@@ -1525,7 +1798,7 @@
         <v>26</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>51</v>
@@ -1542,10 +1815,13 @@
       <c r="N36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -1560,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>35</v>
@@ -1577,36 +1853,799 @@
       <c r="N37" s="1">
         <v>3</v>
       </c>
+      <c r="O37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="1">
+        <v>6287898765</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="1">
+        <v>6290987898</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="1">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6256545676</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="1">
+        <v>6287898652</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M46" s="1">
+        <v>4</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="1">
+        <v>6567654321</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M47" s="1">
+        <v>5</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="1">
+        <v>6123432345</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="1">
+        <v>6456542123</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="1">
+        <v>6756765654</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" s="1">
+        <v>3</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" s="1">
+        <v>3</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" s="1">
+        <v>3</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J61" s="1">
+        <v>4</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J62" s="1">
+        <v>4</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J63" s="1">
+        <v>5</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J64" s="1">
+        <v>5</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F4:H4"/>
+  <mergeCells count="4">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="D5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>